--- a/results_for_various_experiments.xlsx
+++ b/results_for_various_experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>train acc</t>
+  </si>
+  <si>
+    <t>val acc</t>
+  </si>
+  <si>
+    <t>test acc</t>
+  </si>
+  <si>
+    <t>with random crop</t>
+  </si>
+  <si>
+    <t>with gre world color constancy</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>resnet18</t>
+  </si>
+  <si>
+    <t>with horizontal flip</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +378,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.81333299999999997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D6">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.8125</v>
+      </c>
+      <c r="D7">
+        <v>0.82666700000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.68169999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results_for_various_experiments.xlsx
+++ b/results_for_various_experiments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Description</t>
   </si>
@@ -57,13 +57,34 @@
   </si>
   <si>
     <t>with horizontal flip</t>
+  </si>
+  <si>
+    <t>with segmentation</t>
+  </si>
+  <si>
+    <t>without segmentation</t>
+  </si>
+  <si>
+    <t>transform_list = transforms.Compose([grey_world(),transforms.ToPILImage(),transforms.Scale(250),transforms.RandomHorizontalFlip() ,transforms.RandomCrop(224), transforms.ToTensor(), transforms.Normalize([0.485, 0.456, 0.406],[0.229, 0.224, 0.225])])</t>
+  </si>
+  <si>
+    <t>resnet34</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>resnet51</t>
+  </si>
+  <si>
+    <t>resnetwithout51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +97,22 @@
       <color rgb="FF454545"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,14 +132,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,95 +442,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F7"/>
+  <dimension ref="A4:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.79300000000000004</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.81333299999999997</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.81669999999999998</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.81299999999999994</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.85329999999999995</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.80330000000000001</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.8125</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.82666700000000004</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.68169999999999997</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.82</v>
+      </c>
+      <c r="F9">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>